--- a/Zombie/Zombie/sizeManeger.xlsx
+++ b/Zombie/Zombie/sizeManeger.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="画像" sheetId="1" r:id="rId1"/>
+    <sheet name="サウンド" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>画像</t>
     <rPh sb="0" eb="2">
@@ -87,6 +88,201 @@
   </si>
   <si>
     <t>280*200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応のところ</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titlebgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titlese</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t>選択肢を選んだ時</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameplaybgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレイ画面のメーン音楽</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameplayse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あたり判定効果音</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endingbgm</t>
+  </si>
+  <si>
+    <t>endingse</t>
+  </si>
+  <si>
+    <t>ゲームオーバー画面のメーン音楽</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter押した時の効果音</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HealLaserFX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShotgunFX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SludgeDeath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monsterA死ぬときの効果音</t>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WolfDeath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monsterB死ぬときの効果音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾンビ回復銃の効果音（発射）</t>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスター倒す銃の効果音（発射）</t>
+    <rPh sb="5" eb="6">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staffcredits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>550*50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400*50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gamestart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの選択肢</t>
+    <rPh sb="5" eb="8">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24bitなので、使えない</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -223,13 +419,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>120650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>95249</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>755650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>518582</xdr:rowOff>
+          <xdr:rowOff>520700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -275,13 +471,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>120649</xdr:rowOff>
+          <xdr:rowOff>120650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>1111248</xdr:rowOff>
+          <xdr:rowOff>1111250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -333,7 +529,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>1143002</xdr:rowOff>
+          <xdr:rowOff>1143000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -383,9 +579,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>596900</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -413,23 +609,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -741,16 +924,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -814,6 +1000,28 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -936,9 +1144,9 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
+                <xdr:colOff>596900</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -950,4 +1158,159 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Zombie/Zombie/sizeManeger.xlsx
+++ b/Zombie/Zombie/sizeManeger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画像" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>画像</t>
     <rPh sb="0" eb="2">
@@ -279,9 +279,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>24bitなので、使えない</t>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>BattleTheme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレイBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClearFanfare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOverChords</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアーのBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう変わった</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -926,9 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1162,15 +1187,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
@@ -1218,6 +1243,9 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -1240,6 +1268,9 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -1262,9 +1293,6 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -1276,9 +1304,6 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -1290,9 +1315,6 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -1304,8 +1326,38 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
